--- a/CML/MARS/ManualSim2Real/data.xlsx
+++ b/CML/MARS/ManualSim2Real/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/polbernat/Documents/RESEARCH/PinkPanther/git-PinkPanther/CML/MARS/ManualSim2Real/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E85C35-CA2C-C848-B8EF-04FEB9E95C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FDE787-C2F0-8A4D-820F-ED97954CC96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14400" xr2:uid="{A095B86C-F3B3-A84A-B46B-7C4ADEFB86AD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>sin_gait 5</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>VIDEOS</t>
+  </si>
+  <si>
+    <t>sin_gait 7</t>
+  </si>
+  <si>
+    <t>[0.24495851730947005, 0.18187873796178136, 0.2020333429029758, -0.3852743697870839, -0.2094960812992037]</t>
   </si>
 </sst>
 </file>
@@ -425,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D44A3C-BEAA-CD40-A0E8-78204E6FE291}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -496,10 +502,10 @@
         <v>300</v>
       </c>
       <c r="D3">
-        <v>0.84179000000000004</v>
+        <v>0.8417</v>
       </c>
       <c r="E3">
-        <v>28.57142</v>
+        <v>28.571400000000001</v>
       </c>
       <c r="F3">
         <v>2.946E-2</v>
@@ -512,6 +518,26 @@
       </c>
       <c r="I3">
         <v>4.4790000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+      <c r="D4">
+        <v>0.85929999999999995</v>
+      </c>
+      <c r="E4">
+        <v>28.571400000000001</v>
+      </c>
+      <c r="F4">
+        <v>3.007E-2</v>
       </c>
     </row>
   </sheetData>
